--- a/data/trans_orig/P55S4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1D8ED2-E67B-43EE-B85A-3953B11D4DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42F5D0A-9175-4B46-A058-B09CE28CEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{666E2AB7-957E-4B6A-A44B-21918BF8DF3C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E057E72-0212-4F20-9AEE-6745F0D6F532}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387E2B95-87BD-42F2-BF96-879AA70F0612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3D5946-CC65-4E2D-8078-CCDBA0260A3B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2645,7 +2645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5BB0B-201B-4559-8DE6-E5943439F9B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8279F535-FF7F-49CF-A613-F091D8855513}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P55S4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42F5D0A-9175-4B46-A058-B09CE28CEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E455AC-FE03-4CD8-8100-63AF268F6F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E057E72-0212-4F20-9AEE-6745F0D6F532}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{040DAD39-8A56-43D4-A4C1-065C875E99F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3D5946-CC65-4E2D-8078-CCDBA0260A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBBAD3A-4FAC-47A0-A27D-555B64F4E400}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2645,7 +2645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8279F535-FF7F-49CF-A613-F091D8855513}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B662876-9E1B-40D8-A0A3-E991DC9BEF3D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
